--- a/inst/application/data/mixs_v5.xlsx
+++ b/inst/application/data/mixs_v5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/td/Desktop/metaBroker/inst/application/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/td/Desktop/omicsBroker/inst/application/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BCFA3E-AFBD-BB44-B886-A6FD1371B98D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E483579-6008-854A-B62B-03A2E6F5BA5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="2280" windowWidth="45400" windowHeight="25400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="2160" windowWidth="45400" windowHeight="25400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">environmental_packages!$A$1:$L$1015</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MIxS!$A$1:$V$96</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MIxS!$A$1:$V$105</definedName>
     <definedName name="tmp" localSheetId="2">environmental_packages!$A$2:$L$1014</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11415" uniqueCount="3805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11575" uniqueCount="3844">
   <si>
     <t>Structured comment name</t>
   </si>
@@ -11500,16 +11500,133 @@
     <t>organism</t>
   </si>
   <si>
-    <t>Lorem ipsum</t>
-  </si>
-  <si>
-    <t>project_name</t>
-  </si>
-  <si>
-    <t>project name</t>
-  </si>
-  <si>
-    <t>Name of the project within which the sequencing was organized</t>
+    <t>experiment_name</t>
+  </si>
+  <si>
+    <t>experiment name</t>
+  </si>
+  <si>
+    <t>Name of the experiment within which the sequencing was organized</t>
+  </si>
+  <si>
+    <t>Candida glabrata</t>
+  </si>
+  <si>
+    <t>Organism name</t>
+  </si>
+  <si>
+    <t>LIBRARY_STRATEGY</t>
+  </si>
+  <si>
+    <t>library strategy</t>
+  </si>
+  <si>
+    <t>Library strategy</t>
+  </si>
+  <si>
+    <t>[LS454|ILLUMINA|PACBIO_SMRT|ION_TORRENT|CAPILLARY|OXFORD_NANOPORE|DNBSEQ]</t>
+  </si>
+  <si>
+    <t>PLATFORM</t>
+  </si>
+  <si>
+    <t>Platform name. Permitted values : https://ena-docs.readthedocs.io/en/latest/submit/reads/webin-cli.html#permitted-values-for-platform</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>[WGS|WGA|WXS|RNA-Seq|ssRNA-seq|miRNA-Seq|ncRNA-Seq|FL-cDNA|EST|Hi-C|ATAC-seq|WCS|RAD-Seq|CLONE|POOLCLONE|AMPLICON|CLONEEND|FINISHING|ChIP-Seq|MNase-Seq|DNase-Hypersensitivity|Bisulfite-Seq|CTS|MRE-Seq|MeDIP-Seq|MBD-Seq|Tn-Seq|VALIDATION|FAIRE-seq|SELEX|RIP-Seq|ChIA-PET|Synthetic-Long-Read|Targeted-Capture|Tethered Chromatin Conformation Capture|OTHER]</t>
+  </si>
+  <si>
+    <t>WGS</t>
+  </si>
+  <si>
+    <t>[RANDOM|PCR|RANDOM PCR|RT-PCR|HMPR|MF|repeat fractionation|size fractionation|MSLL|cDNA|cDNA_randomPriming|cDNA_oligo_dT|PolyA|Oligo-dT|Inverse rRNA|Inverse rRNA selection|ChIP|ChIP-Seq|MNase|DNase|Hybrid Selection|Reduced Representation|Restriction Digest|5-methylcytidine antibody|MBD2 protein methyl-CpG binding domain|CAGE|RACE|MDA|padlock probes capture method|other|unspecified]</t>
+  </si>
+  <si>
+    <t>LIBRARY_SELECTION</t>
+  </si>
+  <si>
+    <t>Library selection</t>
+  </si>
+  <si>
+    <t>Permitted values :  https://ena-docs.readthedocs.io/en/latest/submit/reads/webin-cli.html#selection</t>
+  </si>
+  <si>
+    <t>RANDOM</t>
+  </si>
+  <si>
+    <t>INSTRUMENT</t>
+  </si>
+  <si>
+    <t>INSERT_SIZE</t>
+  </si>
+  <si>
+    <t>LIBRARY_NAME</t>
+  </si>
+  <si>
+    <t>LIBRARY_SOURCE</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Free text library description</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>[454 GS|454 GS 20|454 GS FLX|454 GS FLX+|454 GS FLX Titanium|454 GS Junior|HiSeq X Five|HiSeq X Ten|Illumina Genome Analyzer|Illumina Genome Analyzer II|Illumina Genome Analyzer IIx|Illumina HiScanSQ|Illumina HiSeq 1000|Illumina HiSeq 1500|Illumina HiSeq 2000|Illumina HiSeq 2500|Illumina HiSeq 3000|Illumina HiSeq 4000|Illumina iSeq 100|Illumina MiSeq|Illumina MiniSeq|Illumina NovaSeq 6000|NextSeq 500|NextSeq 550|PacBio RS|PacBio RS II|Sequel|Ion Torrent PGM|Ion Torrent Proton|Ion Torrent S5|Ion Torrent S5 XL|AB 3730xL Genetic Analyzer|AB 3730 Genetic Analyzer|AB 3500xL Genetic Analyzer|AB 3500 Genetic Analyzer|AB 3130xL Genetic Analyzer|AB 3130 Genetic Analyzer|AB 310 Genetic Analyzer|MinION|GridION|PromethION|BGISEQ-500|DNBSEQ-T7|DNBSEQ-G400|DNBSEQ-G50|DNBSEQ-G400 FAST|unspecified]</t>
+  </si>
+  <si>
+    <t>Illumina HiSeq 2000</t>
+  </si>
+  <si>
+    <t>ILLUMINA</t>
+  </si>
+  <si>
+    <t>Library name (optional)</t>
+  </si>
+  <si>
+    <t>Permitted values :  https://ena-docs.readthedocs.io/en/latest/submit/reads/webin-cli.html#instrument</t>
+  </si>
+  <si>
+    <t>Insert size</t>
+  </si>
+  <si>
+    <t>Insert size for paired reads</t>
+  </si>
+  <si>
+    <t>interger</t>
+  </si>
+  <si>
+    <t>library name</t>
+  </si>
+  <si>
+    <t>[GENOMIC|GENOMIC SINGLE CELL|TRANSCRIPTOMIC|TRANSCRIPTOMIC SINGLE CELL|METAGENOMIC|METATRANSCRIPTOMIC|SYNTHETIC|VIRAL RNA|OTHER]</t>
+  </si>
+  <si>
+    <t>Permitted values : https://ena-docs.readthedocs.io/en/latest/submit/reads/webin-cli.html#permitted-values-for-library-source</t>
+  </si>
+  <si>
+    <t>library source</t>
+  </si>
+  <si>
+    <t>GENOMIC</t>
+  </si>
+  <si>
+    <t>LIBRARY_CONSTRUCTION_PROTOCOL</t>
+  </si>
+  <si>
+    <t>library construction protocol</t>
+  </si>
+  <si>
+    <t>Standart Illumina protocol</t>
   </si>
 </sst>
 </file>
@@ -12071,10 +12188,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V96"/>
+  <dimension ref="A1:V105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -12158,15 +12275,17 @@
     </row>
     <row r="2" spans="1:22" ht="28">
       <c r="A2" s="2" t="s">
+        <v>3801</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3802</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>3803</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3804</v>
-      </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="12" t="s">
+        <v>2278</v>
+      </c>
       <c r="E2" s="2" t="s">
         <v>42</v>
       </c>
@@ -12228,7 +12347,7 @@
         <v>3800</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>3801</v>
+        <v>3805</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>2278</v>
@@ -12237,7 +12356,7 @@
         <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>3804</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>30</v>
@@ -12286,24 +12405,24 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="70">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
+    <row r="4" spans="1:22" ht="28">
+      <c r="A4" s="12" t="s">
+        <v>3810</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>3812</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>3811</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>2278</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>3809</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>3830</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>30</v>
@@ -12342,34 +12461,28 @@
         <v>31</v>
       </c>
       <c r="S4" s="2"/>
-      <c r="T4" s="2">
-        <v>1</v>
-      </c>
-      <c r="U4" s="2">
-        <v>1</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="56">
-      <c r="A5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>37</v>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="1:22" ht="210">
+      <c r="A5" s="12" t="s">
+        <v>3820</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>3827</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>3832</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>2278</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>3828</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>3829</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>30</v>
@@ -12408,103 +12521,89 @@
         <v>31</v>
       </c>
       <c r="S5" s="2"/>
-      <c r="T5" s="2">
-        <v>1</v>
-      </c>
-      <c r="U5" s="2">
-        <v>2</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="70">
-      <c r="A6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>47</v>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" ht="14">
+      <c r="A6" s="12" t="s">
+        <v>3821</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>3833</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>3834</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>3835</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="12">
+        <v>269</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S6" s="2"/>
-      <c r="T6" s="2">
-        <v>1</v>
-      </c>
-      <c r="U6" s="2">
-        <v>4</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="28">
-      <c r="A7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" ht="14">
+      <c r="A7" s="12" t="s">
+        <v>3822</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>3836</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>3831</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>2278</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="12"/>
       <c r="G7" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>31</v>
@@ -12540,227 +12639,211 @@
         <v>31</v>
       </c>
       <c r="S7" s="2"/>
-      <c r="T7" s="2">
-        <v>1</v>
-      </c>
-      <c r="U7" s="2">
-        <v>5</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="28">
-      <c r="A8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" spans="1:22" ht="56">
+      <c r="A8" s="12" t="s">
+        <v>3823</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>3839</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>3838</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>2278</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>3837</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>3840</v>
+      </c>
       <c r="G8" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="S8" s="2"/>
-      <c r="T8" s="2">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2">
-        <v>6</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="70">
-      <c r="A9" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>3786</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>598</v>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+    </row>
+    <row r="9" spans="1:22" ht="112">
+      <c r="A9" s="12" t="s">
+        <v>3816</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>3817</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>3818</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>2278</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>3815</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>3819</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:22" ht="42">
-      <c r="A10" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>598</v>
+    <row r="10" spans="1:22" ht="14">
+      <c r="A10" s="12" t="s">
+        <v>3806</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>3807</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>3808</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>2278</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3813</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>3814</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="S10" s="2"/>
-      <c r="T10" s="2">
-        <v>0</v>
-      </c>
-      <c r="U10" s="2">
-        <v>7</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="42">
-      <c r="A11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>71</v>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+    </row>
+    <row r="11" spans="1:22" ht="28">
+      <c r="A11" s="12" t="s">
+        <v>3841</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>3842</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>3842</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>2278</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>3843</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>31</v>
@@ -12796,37 +12879,29 @@
         <v>31</v>
       </c>
       <c r="S11" s="2"/>
-      <c r="T11" s="2">
-        <v>1</v>
-      </c>
-      <c r="U11" s="2">
-        <v>8</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="56">
-      <c r="A12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+    </row>
+    <row r="12" spans="1:22" ht="14">
+      <c r="A12" s="12" t="s">
+        <v>3824</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>3825</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>3826</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>2278</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="12"/>
       <c r="G12" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>31</v>
@@ -12862,37 +12937,31 @@
         <v>31</v>
       </c>
       <c r="S12" s="2"/>
-      <c r="T12" s="2">
-        <v>1</v>
-      </c>
-      <c r="U12" s="2">
-        <v>9</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="126">
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+    </row>
+    <row r="13" spans="1:22" ht="70">
       <c r="A13" s="2" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>31</v>
@@ -12932,33 +13001,33 @@
         <v>1</v>
       </c>
       <c r="U13" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="112">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="56">
       <c r="A14" s="2" t="s">
-        <v>89</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>87</v>
+        <v>38</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>31</v>
@@ -12998,762 +13067,754 @@
         <v>1</v>
       </c>
       <c r="U14" s="2">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="112">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="70">
       <c r="A15" s="2" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2">
         <v>1</v>
       </c>
       <c r="U15" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" ht="70">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="28">
       <c r="A16" s="2" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2">
         <v>1</v>
       </c>
       <c r="U16" s="2">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="56">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="28">
       <c r="A17" s="2" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>112</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" s="2">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="70">
       <c r="A18" s="2" t="s">
-        <v>117</v>
+        <v>596</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>117</v>
+        <v>597</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>118</v>
+        <v>3786</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>120</v>
+        <v>235</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>87</v>
+        <v>236</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>119</v>
+        <v>598</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S18" s="2"/>
-      <c r="T18" s="2">
-        <v>1</v>
-      </c>
-      <c r="U18" s="2">
-        <v>15</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>121</v>
-      </c>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
     </row>
     <row r="19" spans="1:22" ht="42">
       <c r="A19" s="2" t="s">
-        <v>122</v>
+        <v>601</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>123</v>
+        <v>602</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>124</v>
+        <v>603</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>125</v>
+        <v>235</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="2">
-        <v>2</v>
+        <v>236</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>598</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="2">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="42">
       <c r="A20" s="2" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="2">
-        <v>5</v>
+        <v>73</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2">
         <v>1</v>
       </c>
       <c r="U20" s="2">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="28">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="56">
       <c r="A21" s="2" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>134</v>
+        <v>76</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>138</v>
+        <v>80</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2">
         <v>1</v>
       </c>
       <c r="U21" s="2">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="28">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="126">
       <c r="A22" s="2" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2">
         <v>1</v>
       </c>
       <c r="U22" s="2">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" ht="140">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="112">
       <c r="A23" s="2" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>148</v>
+        <v>90</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>150</v>
+        <v>92</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S23" s="2"/>
-      <c r="T23" s="2" t="s">
-        <v>152</v>
+      <c r="T23" s="2">
+        <v>1</v>
       </c>
       <c r="U23" s="2">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" ht="28">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="112">
       <c r="A24" s="2" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="R24" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2">
         <v>1</v>
       </c>
       <c r="U24" s="2">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" ht="42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="70">
       <c r="A25" s="2" t="s">
-        <v>160</v>
+        <v>101</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>163</v>
+        <v>104</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>50</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="R25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2">
         <v>1</v>
       </c>
       <c r="U25" s="2">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="42">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="56">
       <c r="A26" s="2" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F26" s="2">
-        <v>9606</v>
+        <v>115</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>50</v>
@@ -13765,7 +13826,7 @@
         <v>50</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>64</v>
@@ -13774,7 +13835,7 @@
         <v>64</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>64</v>
@@ -13783,37 +13844,37 @@
         <v>64</v>
       </c>
       <c r="R26" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="S26" s="2"/>
       <c r="T26" s="2">
         <v>1</v>
       </c>
       <c r="U26" s="2">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="28">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="70">
       <c r="A27" s="2" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>173</v>
+        <v>117</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>174</v>
+        <v>118</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" s="2">
-        <v>9606</v>
+        <v>87</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>114</v>
@@ -13822,13 +13883,13 @@
         <v>49</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>64</v>
@@ -13849,37 +13910,37 @@
         <v>64</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="2">
         <v>1</v>
       </c>
       <c r="U27" s="2">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>176</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="42">
       <c r="A28" s="2" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>180</v>
+        <v>126</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>114</v>
@@ -13888,7 +13949,7 @@
         <v>49</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>64</v>
@@ -13922,36 +13983,36 @@
         <v>1</v>
       </c>
       <c r="U28" s="2">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="112">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="28">
       <c r="A29" s="2" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>186</v>
+        <v>126</v>
+      </c>
+      <c r="F29" s="2">
+        <v>5</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>50</v>
@@ -13963,7 +14024,7 @@
         <v>64</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>64</v>
@@ -13972,7 +14033,7 @@
         <v>64</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>64</v>
@@ -13988,48 +14049,48 @@
         <v>1</v>
       </c>
       <c r="U29" s="2">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="42">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="28">
       <c r="A30" s="2" t="s">
-        <v>189</v>
+        <v>133</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>189</v>
+        <v>134</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>42</v>
+        <v>138</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>64</v>
@@ -14047,58 +14108,58 @@
         <v>64</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="2">
         <v>1</v>
       </c>
       <c r="U30" s="2">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="28">
       <c r="A31" s="2" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>64</v>
@@ -14107,127 +14168,127 @@
         <v>64</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="2">
         <v>1</v>
       </c>
       <c r="U31" s="2">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="28">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="140">
       <c r="A32" s="2" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>201</v>
+        <v>148</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>202</v>
+        <v>149</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>203</v>
+        <v>150</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>50</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="S32" s="2"/>
-      <c r="T32" s="2">
-        <v>1</v>
+      <c r="T32" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="U32" s="2">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:22" ht="28">
       <c r="A33" s="2" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>208</v>
+        <v>156</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>210</v>
+        <v>158</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>209</v>
+        <v>157</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>64</v>
@@ -14236,7 +14297,7 @@
         <v>64</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>64</v>
@@ -14245,37 +14306,37 @@
         <v>64</v>
       </c>
       <c r="R33" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33" s="2">
         <v>1</v>
       </c>
       <c r="U33" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="28">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="42">
       <c r="A34" s="2" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>216</v>
+        <v>105</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>114</v>
@@ -14284,64 +14345,64 @@
         <v>49</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>49</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="M34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O34" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N34" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="P34" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="2">
         <v>1</v>
       </c>
       <c r="U34" s="2">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="42">
       <c r="A35" s="2" t="s">
-        <v>218</v>
+        <v>166</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>222</v>
+        <v>169</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>221</v>
+        <v>170</v>
+      </c>
+      <c r="F35" s="2">
+        <v>9606</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>114</v>
@@ -14350,130 +14411,130 @@
         <v>49</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="R35" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="2">
         <v>1</v>
       </c>
       <c r="U35" s="2">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>224</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="28">
       <c r="A36" s="2" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>228</v>
+        <v>175</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>591</v>
+        <v>126</v>
+      </c>
+      <c r="F36" s="2">
+        <v>9606</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>64</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>64</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S36" s="2"/>
       <c r="T36" s="2">
         <v>1</v>
       </c>
       <c r="U36" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="56">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="42">
       <c r="A37" s="2" t="s">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>233</v>
+        <v>179</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>235</v>
+        <v>105</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>234</v>
+        <v>180</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>114</v>
@@ -14482,75 +14543,73 @@
         <v>49</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S37" s="2" t="s">
-        <v>237</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="S37" s="2"/>
       <c r="T37" s="2">
         <v>1</v>
       </c>
       <c r="U37" s="2">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="84">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="112">
       <c r="A38" s="2" t="s">
-        <v>239</v>
+        <v>183</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>240</v>
+        <v>184</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>241</v>
+        <v>185</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>64</v>
@@ -14568,7 +14627,7 @@
         <v>64</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>64</v>
@@ -14577,52 +14636,52 @@
         <v>64</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="S38" s="2"/>
       <c r="T38" s="2">
         <v>1</v>
       </c>
       <c r="U38" s="2">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>244</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:22" ht="42">
       <c r="A39" s="2" t="s">
-        <v>245</v>
+        <v>189</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>247</v>
+        <v>190</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>249</v>
+        <v>42</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>114</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>64</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>64</v>
@@ -14643,46 +14702,46 @@
         <v>64</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="S39" s="2"/>
       <c r="T39" s="2">
         <v>1</v>
       </c>
       <c r="U39" s="2">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>250</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="28">
       <c r="A40" s="2" t="s">
-        <v>251</v>
+        <v>194</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>50</v>
@@ -14691,190 +14750,190 @@
         <v>50</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="S40" s="2"/>
       <c r="T40" s="2">
         <v>1</v>
       </c>
       <c r="U40" s="2">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="28">
       <c r="A41" s="2" t="s">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>145</v>
+        <v>204</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>50</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="S41" s="2"/>
       <c r="T41" s="2">
         <v>1</v>
       </c>
       <c r="U41" s="2">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>261</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="28">
       <c r="A42" s="2" t="s">
-        <v>262</v>
+        <v>206</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>263</v>
+        <v>207</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>264</v>
+        <v>208</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F42" s="2">
-        <v>50</v>
+        <v>145</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="O42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P42" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P42" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="Q42" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="S42" s="2"/>
       <c r="T42" s="2">
         <v>1</v>
       </c>
       <c r="U42" s="2">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="28">
       <c r="A43" s="2" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F43" s="2">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>49</v>
@@ -14898,7 +14957,7 @@
         <v>50</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>50</v>
@@ -14914,33 +14973,33 @@
         <v>1</v>
       </c>
       <c r="U43" s="2">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="V43" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="28">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="42">
       <c r="A44" s="2" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>105</v>
+        <v>222</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>276</v>
+        <v>223</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>49</v>
@@ -14964,7 +15023,7 @@
         <v>50</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>50</v>
@@ -14980,63 +15039,63 @@
         <v>1</v>
       </c>
       <c r="U44" s="2">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>277</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:22" ht="28">
       <c r="A45" s="2" t="s">
-        <v>278</v>
+        <v>225</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>279</v>
+        <v>226</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>280</v>
+        <v>227</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>281</v>
+        <v>591</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>64</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R45" s="2" t="s">
         <v>50</v>
@@ -15046,33 +15105,33 @@
         <v>1</v>
       </c>
       <c r="U45" s="2">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="28">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="56">
       <c r="A46" s="2" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>285</v>
+        <v>232</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>286</v>
+        <v>233</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>288</v>
+        <v>235</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>42</v>
+        <v>236</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>287</v>
+        <v>234</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>49</v>
@@ -15096,7 +15155,7 @@
         <v>50</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>50</v>
@@ -15107,38 +15166,40 @@
       <c r="R46" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S46" s="2"/>
+      <c r="S46" s="2" t="s">
+        <v>237</v>
+      </c>
       <c r="T46" s="2">
         <v>1</v>
       </c>
       <c r="U46" s="2">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="28">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="84">
       <c r="A47" s="2" t="s">
-        <v>290</v>
+        <v>239</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>291</v>
+        <v>240</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>294</v>
+        <v>105</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>42</v>
+        <v>243</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>293</v>
+        <v>242</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>64</v>
@@ -15159,10 +15220,10 @@
         <v>64</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>64</v>
@@ -15171,40 +15232,40 @@
         <v>64</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="S47" s="2"/>
       <c r="T47" s="2">
         <v>1</v>
       </c>
       <c r="U47" s="2">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" ht="28">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" ht="42">
       <c r="A48" s="2" t="s">
-        <v>296</v>
+        <v>245</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>297</v>
+        <v>246</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>298</v>
+        <v>247</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>300</v>
+        <v>105</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>42</v>
+        <v>249</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>299</v>
+        <v>248</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>64</v>
@@ -15216,7 +15277,7 @@
         <v>64</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>64</v>
@@ -15225,10 +15286,10 @@
         <v>64</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>64</v>
@@ -15237,58 +15298,58 @@
         <v>64</v>
       </c>
       <c r="R48" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="S48" s="2"/>
       <c r="T48" s="2">
         <v>1</v>
       </c>
       <c r="U48" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" ht="42">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" ht="28">
       <c r="A49" s="2" t="s">
-        <v>302</v>
+        <v>251</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>303</v>
+        <v>252</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>304</v>
+        <v>253</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>306</v>
+        <v>144</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>307</v>
+        <v>145</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>255</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="N49" s="2" t="s">
         <v>50</v>
@@ -15297,61 +15358,61 @@
         <v>50</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="S49" s="2"/>
       <c r="T49" s="2">
         <v>1</v>
       </c>
       <c r="U49" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="V49" s="2" t="s">
-        <v>308</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="28">
       <c r="A50" s="2" t="s">
-        <v>309</v>
+        <v>257</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>310</v>
+        <v>258</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>311</v>
+        <v>259</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>313</v>
+        <v>144</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>314</v>
+        <v>145</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>255</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>50</v>
@@ -15360,7 +15421,7 @@
         <v>50</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>50</v>
@@ -15376,48 +15437,48 @@
         <v>1</v>
       </c>
       <c r="U50" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="V50" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" ht="42">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="28">
       <c r="A51" s="2" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>319</v>
+        <v>265</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>318</v>
+        <v>126</v>
+      </c>
+      <c r="F51" s="2">
+        <v>50</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>255</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>50</v>
@@ -15442,510 +15503,510 @@
         <v>1</v>
       </c>
       <c r="U51" s="2">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" ht="56">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" ht="28">
       <c r="A52" s="2" t="s">
-        <v>322</v>
+        <v>267</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>323</v>
+        <v>268</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>324</v>
+        <v>269</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>326</v>
+        <v>270</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>325</v>
+        <v>126</v>
+      </c>
+      <c r="F52" s="2">
+        <v>20</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>255</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="N52" s="2" t="s">
         <v>50</v>
       </c>
       <c r="O52" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P52" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P52" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="Q52" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="R52" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="S52" s="2"/>
       <c r="T52" s="2">
         <v>1</v>
       </c>
       <c r="U52" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" ht="238">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" ht="28">
       <c r="A53" s="2" t="s">
-        <v>328</v>
+        <v>272</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>329</v>
+        <v>273</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>330</v>
+        <v>274</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>332</v>
+        <v>276</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>331</v>
+        <v>275</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>255</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S53" s="2"/>
       <c r="T53" s="2">
         <v>1</v>
       </c>
       <c r="U53" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" ht="42">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="28">
       <c r="A54" s="2" t="s">
-        <v>334</v>
+        <v>278</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>335</v>
+        <v>279</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>336</v>
+        <v>280</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>338</v>
+        <v>282</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>339</v>
+        <v>42</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>337</v>
+        <v>281</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>255</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>50</v>
       </c>
       <c r="O54" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P54" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P54" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="Q54" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="S54" s="2"/>
       <c r="T54" s="2">
         <v>1</v>
       </c>
       <c r="U54" s="2">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" ht="70">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="28">
       <c r="A55" s="2" t="s">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>345</v>
+        <v>288</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>346</v>
+        <v>42</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>255</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>50</v>
       </c>
       <c r="O55" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P55" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P55" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="Q55" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="S55" s="2"/>
       <c r="T55" s="2">
         <v>1</v>
       </c>
       <c r="U55" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>347</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="28">
       <c r="A56" s="2" t="s">
-        <v>348</v>
+        <v>290</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>349</v>
+        <v>291</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>350</v>
+        <v>292</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>105</v>
+        <v>294</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>352</v>
+        <v>42</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>351</v>
+        <v>293</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>255</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>64</v>
       </c>
       <c r="N56" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P56" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O56" s="2" t="s">
+      <c r="Q56" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P56" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q56" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="R56" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="S56" s="2"/>
       <c r="T56" s="2">
         <v>1</v>
       </c>
       <c r="U56" s="2">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" ht="182">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="28">
       <c r="A57" s="2" t="s">
-        <v>354</v>
+        <v>296</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>355</v>
+        <v>297</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>356</v>
+        <v>298</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>105</v>
+        <v>300</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>358</v>
+        <v>42</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>357</v>
+        <v>299</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>255</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="M57" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N57" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N57" s="2" t="s">
+      <c r="O57" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P57" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O57" s="2" t="s">
+      <c r="Q57" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P57" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q57" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="R57" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="S57" s="2"/>
       <c r="T57" s="2">
         <v>1</v>
       </c>
       <c r="U57" s="2">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" ht="28">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="42">
       <c r="A58" s="2" t="s">
-        <v>360</v>
+        <v>302</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>361</v>
+        <v>303</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>362</v>
+        <v>304</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>363</v>
+        <v>305</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>255</v>
       </c>
       <c r="H58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N58" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="O58" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L58" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="N58" s="2" t="s">
+      <c r="P58" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O58" s="2" t="s">
+      <c r="Q58" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P58" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q58" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="R58" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="S58" s="2"/>
       <c r="T58" s="2">
         <v>1</v>
       </c>
       <c r="U58" s="2">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="V58" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" ht="42">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="28">
       <c r="A59" s="2" t="s">
-        <v>367</v>
+        <v>309</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>368</v>
+        <v>310</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>369</v>
+        <v>311</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>370</v>
+        <v>312</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>255</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>50</v>
@@ -15957,43 +16018,43 @@
         <v>64</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S59" s="2"/>
-      <c r="T59" s="2" t="s">
-        <v>152</v>
+      <c r="T59" s="2">
+        <v>1</v>
       </c>
       <c r="U59" s="2">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" ht="28">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" ht="42">
       <c r="A60" s="2" t="s">
-        <v>372</v>
+        <v>316</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>373</v>
+        <v>316</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>374</v>
+        <v>317</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>376</v>
+        <v>319</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>375</v>
+        <v>318</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>255</v>
@@ -16017,334 +16078,334 @@
         <v>50</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="O60" s="2" t="s">
         <v>64</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S60" s="2"/>
       <c r="T60" s="2">
         <v>1</v>
       </c>
       <c r="U60" s="2">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="V60" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" ht="28">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" ht="56">
       <c r="A61" s="2" t="s">
-        <v>378</v>
+        <v>322</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>379</v>
+        <v>323</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>380</v>
+        <v>324</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>381</v>
+        <v>326</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F61" s="2">
-        <v>40</v>
+        <v>326</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>325</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>255</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="M61" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N61" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N61" s="2" t="s">
+      <c r="O61" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P61" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O61" s="2" t="s">
+      <c r="Q61" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P61" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q61" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="R61" s="2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="S61" s="2"/>
       <c r="T61" s="2">
         <v>1</v>
       </c>
       <c r="U61" s="2">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="V61" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" ht="28">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="238">
       <c r="A62" s="2" t="s">
-        <v>383</v>
+        <v>328</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>384</v>
+        <v>329</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>385</v>
+        <v>330</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>387</v>
+        <v>105</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>386</v>
+        <v>331</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>255</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="Q62" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="R62" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S62" s="2"/>
       <c r="T62" s="2">
         <v>1</v>
       </c>
       <c r="U62" s="2">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="V62" s="2" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="42">
       <c r="A63" s="2" t="s">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>390</v>
+        <v>335</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>393</v>
+        <v>338</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>394</v>
+        <v>339</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>392</v>
+        <v>337</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>255</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="N63" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P63" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O63" s="2" t="s">
+      <c r="Q63" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P63" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q63" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="R63" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="S63" s="2"/>
       <c r="T63" s="2">
         <v>1</v>
       </c>
       <c r="U63" s="2">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="V63" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" ht="28">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="70">
       <c r="A64" s="2" t="s">
-        <v>396</v>
+        <v>341</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>397</v>
+        <v>342</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>398</v>
+        <v>343</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>387</v>
+        <v>345</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>346</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>399</v>
+        <v>344</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>255</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="N64" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P64" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O64" s="2" t="s">
+      <c r="Q64" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P64" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q64" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="R64" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="S64" s="2"/>
       <c r="T64" s="2">
         <v>1</v>
       </c>
       <c r="U64" s="2">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="V64" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" ht="42">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" ht="28">
       <c r="A65" s="2" t="s">
-        <v>401</v>
+        <v>348</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>402</v>
+        <v>349</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>403</v>
+        <v>350</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>405</v>
+        <v>105</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>42</v>
+        <v>352</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>404</v>
+        <v>351</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>255</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="N65" s="2" t="s">
         <v>64</v>
@@ -16353,64 +16414,64 @@
         <v>64</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S65" s="2"/>
       <c r="T65" s="2">
         <v>1</v>
       </c>
       <c r="U65" s="2">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="V65" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" ht="28">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" ht="182">
       <c r="A66" s="2" t="s">
-        <v>407</v>
+        <v>354</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>408</v>
+        <v>355</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>409</v>
+        <v>356</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>32</v>
+        <v>358</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>28</v>
+        <v>357</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>255</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="N66" s="2" t="s">
         <v>64</v>
@@ -16419,64 +16480,64 @@
         <v>64</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="S66" s="2"/>
       <c r="T66" s="2">
         <v>1</v>
       </c>
       <c r="U66" s="2">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="V66" s="2" t="s">
-        <v>410</v>
+        <v>359</v>
       </c>
     </row>
     <row r="67" spans="1:22" ht="28">
       <c r="A67" s="2" t="s">
-        <v>411</v>
+        <v>360</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>412</v>
+        <v>361</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>413</v>
+        <v>362</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>414</v>
+        <v>363</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>255</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="N67" s="2" t="s">
         <v>64</v>
@@ -16485,130 +16546,130 @@
         <v>64</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="S67" s="2"/>
       <c r="T67" s="2">
         <v>1</v>
       </c>
       <c r="U67" s="2">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="V67" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" ht="28">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" ht="42">
       <c r="A68" s="2" t="s">
-        <v>416</v>
+        <v>367</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>418</v>
+        <v>369</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>419</v>
+        <v>345</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F68" s="2">
-        <v>18</v>
+        <v>346</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>255</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="O68" s="2" t="s">
         <v>64</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="S68" s="2"/>
-      <c r="T68" s="2">
-        <v>1</v>
+      <c r="T68" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="U68" s="2">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="V68" s="2" t="s">
-        <v>420</v>
+        <v>371</v>
       </c>
     </row>
     <row r="69" spans="1:22" ht="28">
       <c r="A69" s="2" t="s">
-        <v>421</v>
+        <v>372</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>422</v>
+        <v>373</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>423</v>
+        <v>374</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>346</v>
+        <v>42</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>424</v>
+        <v>375</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>255</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="K69" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="N69" s="2" t="s">
         <v>64</v>
@@ -16630,39 +16691,39 @@
         <v>1</v>
       </c>
       <c r="U69" s="2">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="V69" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" ht="56">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" ht="28">
       <c r="A70" s="2" t="s">
-        <v>426</v>
+        <v>378</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>427</v>
+        <v>379</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>428</v>
+        <v>380</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>430</v>
+        <v>381</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>429</v>
+        <v>126</v>
+      </c>
+      <c r="F70" s="2">
+        <v>40</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>255</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>49</v>
@@ -16674,7 +16735,7 @@
         <v>49</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="N70" s="2" t="s">
         <v>64</v>
@@ -16683,43 +16744,43 @@
         <v>64</v>
       </c>
       <c r="P70" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R70" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="Q70" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R70" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="S70" s="2"/>
       <c r="T70" s="2">
         <v>1</v>
       </c>
       <c r="U70" s="2">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="V70" s="2" t="s">
-        <v>432</v>
+        <v>382</v>
       </c>
     </row>
     <row r="71" spans="1:22" ht="28">
       <c r="A71" s="2" t="s">
-        <v>433</v>
+        <v>383</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>434</v>
+        <v>384</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>435</v>
+        <v>385</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>437</v>
+        <v>387</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>438</v>
+        <v>346</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>436</v>
+        <v>386</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>255</v>
@@ -16740,7 +16801,7 @@
         <v>49</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="N71" s="2" t="s">
         <v>64</v>
@@ -16749,64 +16810,64 @@
         <v>64</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="Q71" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S71" s="2"/>
       <c r="T71" s="2">
         <v>1</v>
       </c>
       <c r="U71" s="2">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="V71" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" ht="56">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" ht="42">
       <c r="A72" s="2" t="s">
-        <v>440</v>
+        <v>389</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>441</v>
+        <v>390</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>442</v>
+        <v>391</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>105</v>
+        <v>393</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>444</v>
+        <v>394</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>443</v>
+        <v>392</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>255</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="K72" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="N72" s="2" t="s">
         <v>64</v>
@@ -16828,51 +16889,51 @@
         <v>1</v>
       </c>
       <c r="U72" s="2">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="V72" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" ht="56">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" ht="28">
       <c r="A73" s="2" t="s">
-        <v>446</v>
+        <v>396</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>447</v>
+        <v>397</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>448</v>
+        <v>398</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="F73" s="6">
-        <v>0.01</v>
+        <v>346</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>399</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>255</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="K73" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="N73" s="2" t="s">
         <v>64</v>
@@ -16881,64 +16942,64 @@
         <v>64</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="Q73" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="R73" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="S73" s="2"/>
       <c r="T73" s="2">
         <v>1</v>
       </c>
       <c r="U73" s="2">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="V73" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" ht="28">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" ht="42">
       <c r="A74" s="2" t="s">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>453</v>
+        <v>403</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>405</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>455</v>
+        <v>42</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>454</v>
+        <v>404</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>255</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="K74" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="N74" s="2" t="s">
         <v>64</v>
@@ -16953,37 +17014,37 @@
         <v>49</v>
       </c>
       <c r="R74" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="S74" s="2"/>
       <c r="T74" s="2">
         <v>1</v>
       </c>
       <c r="U74" s="2">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="V74" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" ht="42">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" ht="28">
       <c r="A75" s="2" t="s">
-        <v>457</v>
+        <v>407</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>459</v>
+        <v>409</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>461</v>
+        <v>29</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>462</v>
+        <v>32</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>460</v>
+        <v>28</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>255</v>
@@ -17026,30 +17087,30 @@
         <v>1</v>
       </c>
       <c r="U75" s="2">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="V75" s="2" t="s">
-        <v>463</v>
+        <v>410</v>
       </c>
     </row>
     <row r="76" spans="1:22" ht="28">
       <c r="A76" s="2" t="s">
-        <v>464</v>
+        <v>411</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>465</v>
+        <v>412</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>466</v>
+        <v>413</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>387</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>468</v>
+        <v>346</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>467</v>
+        <v>414</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>255</v>
@@ -17092,30 +17153,30 @@
         <v>1</v>
       </c>
       <c r="U76" s="2">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="V76" s="2" t="s">
-        <v>469</v>
+        <v>415</v>
       </c>
     </row>
     <row r="77" spans="1:22" ht="28">
       <c r="A77" s="2" t="s">
-        <v>470</v>
+        <v>416</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>471</v>
+        <v>417</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>472</v>
+        <v>418</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>419</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>473</v>
+        <v>126</v>
+      </c>
+      <c r="F77" s="2">
+        <v>18</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>255</v>
@@ -17145,43 +17206,43 @@
         <v>64</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="Q77" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="R77" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S77" s="2"/>
       <c r="T77" s="2">
         <v>1</v>
       </c>
       <c r="U77" s="2">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="V77" s="2" t="s">
-        <v>475</v>
+        <v>420</v>
       </c>
     </row>
     <row r="78" spans="1:22" ht="28">
       <c r="A78" s="2" t="s">
-        <v>476</v>
+        <v>421</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>477</v>
+        <v>422</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>478</v>
+        <v>423</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>387</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>480</v>
+        <v>346</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>479</v>
+        <v>424</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>255</v>
@@ -17211,61 +17272,61 @@
         <v>64</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="Q78" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="R78" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S78" s="2"/>
       <c r="T78" s="2">
         <v>1</v>
       </c>
       <c r="U78" s="2">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="V78" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" ht="28">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" ht="56">
       <c r="A79" s="2" t="s">
-        <v>482</v>
+        <v>426</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>483</v>
+        <v>427</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>484</v>
+        <v>428</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>486</v>
+        <v>430</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>42</v>
+        <v>431</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>485</v>
+        <v>429</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>255</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="K79" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>64</v>
@@ -17277,10 +17338,10 @@
         <v>64</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="Q79" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="R79" s="2" t="s">
         <v>50</v>
@@ -17290,48 +17351,48 @@
         <v>1</v>
       </c>
       <c r="U79" s="2">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="V79" s="2" t="s">
-        <v>487</v>
+        <v>432</v>
       </c>
     </row>
     <row r="80" spans="1:22" ht="28">
       <c r="A80" s="2" t="s">
-        <v>488</v>
+        <v>433</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>489</v>
+        <v>434</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>490</v>
+        <v>435</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>437</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>492</v>
+        <v>438</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>491</v>
+        <v>436</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>255</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="K80" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>64</v>
@@ -17346,40 +17407,40 @@
         <v>31</v>
       </c>
       <c r="Q80" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="R80" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S80" s="2"/>
       <c r="T80" s="2">
         <v>1</v>
       </c>
       <c r="U80" s="2">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="V80" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" ht="28">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" ht="56">
       <c r="A81" s="2" t="s">
-        <v>494</v>
+        <v>440</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>495</v>
+        <v>441</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>496</v>
+        <v>442</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>498</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>42</v>
+        <v>444</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>497</v>
+        <v>443</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>255</v>
@@ -17412,7 +17473,7 @@
         <v>49</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="R81" s="2" t="s">
         <v>50</v>
@@ -17422,30 +17483,30 @@
         <v>1</v>
       </c>
       <c r="U81" s="2">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="V81" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" ht="28">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" ht="56">
       <c r="A82" s="2" t="s">
-        <v>500</v>
+        <v>446</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>501</v>
+        <v>447</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>502</v>
+        <v>448</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>105</v>
+        <v>381</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>503</v>
+        <v>449</v>
+      </c>
+      <c r="F82" s="6">
+        <v>0.01</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>255</v>
@@ -17475,43 +17536,43 @@
         <v>64</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="Q82" s="2" t="s">
         <v>31</v>
       </c>
       <c r="R82" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="S82" s="2"/>
       <c r="T82" s="2">
         <v>1</v>
       </c>
       <c r="U82" s="2">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="V82" s="2" t="s">
-        <v>505</v>
+        <v>450</v>
       </c>
     </row>
     <row r="83" spans="1:22" ht="28">
       <c r="A83" s="2" t="s">
-        <v>506</v>
+        <v>451</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>507</v>
+        <v>452</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>508</v>
+        <v>453</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>510</v>
+        <v>455</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>509</v>
+        <v>454</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>255</v>
@@ -17541,43 +17602,43 @@
         <v>64</v>
       </c>
       <c r="P83" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q83" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R83" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="Q83" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R83" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="S83" s="2"/>
       <c r="T83" s="2">
         <v>1</v>
       </c>
       <c r="U83" s="2">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="V83" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" ht="28">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" ht="42">
       <c r="A84" s="2" t="s">
-        <v>512</v>
+        <v>457</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>513</v>
+        <v>458</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>514</v>
+        <v>459</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>29</v>
+        <v>461</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>32</v>
+        <v>462</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>515</v>
+        <v>460</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>255</v>
@@ -17607,43 +17668,43 @@
         <v>64</v>
       </c>
       <c r="P84" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R84" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="Q84" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R84" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="S84" s="2"/>
       <c r="T84" s="2">
         <v>1</v>
       </c>
       <c r="U84" s="2">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="V84" s="2" t="s">
-        <v>516</v>
+        <v>463</v>
       </c>
     </row>
     <row r="85" spans="1:22" ht="28">
       <c r="A85" s="2" t="s">
-        <v>517</v>
+        <v>464</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>518</v>
+        <v>465</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>519</v>
+        <v>466</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>521</v>
+        <v>468</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>520</v>
+        <v>467</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>255</v>
@@ -17673,43 +17734,43 @@
         <v>64</v>
       </c>
       <c r="P85" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q85" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R85" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="Q85" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="R85" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="S85" s="2"/>
       <c r="T85" s="2">
         <v>1</v>
       </c>
       <c r="U85" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="V85" s="2" t="s">
-        <v>522</v>
+        <v>469</v>
       </c>
     </row>
     <row r="86" spans="1:22" ht="28">
       <c r="A86" s="2" t="s">
-        <v>523</v>
+        <v>470</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>524</v>
+        <v>471</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>525</v>
+        <v>472</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>527</v>
+        <v>105</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>346</v>
+        <v>474</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>526</v>
+        <v>473</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>255</v>
@@ -17739,43 +17800,43 @@
         <v>64</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="Q86" s="2" t="s">
         <v>64</v>
       </c>
       <c r="R86" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S86" s="2"/>
       <c r="T86" s="2">
         <v>1</v>
       </c>
       <c r="U86" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="V86" s="2" t="s">
-        <v>528</v>
+        <v>475</v>
       </c>
     </row>
     <row r="87" spans="1:22" ht="28">
       <c r="A87" s="2" t="s">
-        <v>529</v>
+        <v>476</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>530</v>
+        <v>477</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>531</v>
+        <v>478</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>533</v>
+        <v>480</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>532</v>
+        <v>479</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>255</v>
@@ -17805,43 +17866,43 @@
         <v>64</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="Q87" s="2" t="s">
         <v>64</v>
       </c>
       <c r="R87" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S87" s="2"/>
       <c r="T87" s="2">
         <v>1</v>
       </c>
       <c r="U87" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="V87" s="2" t="s">
-        <v>534</v>
+        <v>481</v>
       </c>
     </row>
     <row r="88" spans="1:22" ht="28">
       <c r="A88" s="2" t="s">
-        <v>535</v>
+        <v>482</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>536</v>
+        <v>483</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>537</v>
+        <v>484</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>105</v>
+        <v>486</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>539</v>
+        <v>42</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>538</v>
+        <v>485</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>255</v>
@@ -17871,43 +17932,43 @@
         <v>64</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="Q88" s="2" t="s">
         <v>64</v>
       </c>
       <c r="R88" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S88" s="2"/>
       <c r="T88" s="2">
         <v>1</v>
       </c>
       <c r="U88" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="V88" s="2" t="s">
-        <v>540</v>
+        <v>487</v>
       </c>
     </row>
     <row r="89" spans="1:22" ht="28">
       <c r="A89" s="2" t="s">
-        <v>541</v>
+        <v>488</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>542</v>
+        <v>489</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>543</v>
+        <v>490</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>545</v>
+        <v>492</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>544</v>
+        <v>491</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>255</v>
@@ -17937,43 +17998,43 @@
         <v>64</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="Q89" s="2" t="s">
         <v>64</v>
       </c>
       <c r="R89" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="S89" s="2"/>
       <c r="T89" s="2">
         <v>1</v>
       </c>
       <c r="U89" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="V89" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" ht="42">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" ht="28">
       <c r="A90" s="2" t="s">
-        <v>547</v>
+        <v>494</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>548</v>
+        <v>495</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>549</v>
+        <v>496</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>551</v>
+        <v>498</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>552</v>
+        <v>42</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>550</v>
+        <v>497</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>255</v>
@@ -18003,7 +18064,7 @@
         <v>64</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="Q90" s="2" t="s">
         <v>64</v>
@@ -18016,30 +18077,30 @@
         <v>1</v>
       </c>
       <c r="U90" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="V90" s="2" t="s">
-        <v>553</v>
+        <v>499</v>
       </c>
     </row>
     <row r="91" spans="1:22" ht="28">
       <c r="A91" s="2" t="s">
-        <v>554</v>
+        <v>500</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>555</v>
+        <v>501</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>556</v>
+        <v>502</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>527</v>
+        <v>105</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>346</v>
+        <v>504</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>557</v>
+        <v>503</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>255</v>
@@ -18072,7 +18133,7 @@
         <v>64</v>
       </c>
       <c r="Q91" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="R91" s="2" t="s">
         <v>50</v>
@@ -18082,30 +18143,30 @@
         <v>1</v>
       </c>
       <c r="U91" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="V91" s="2" t="s">
-        <v>558</v>
+        <v>505</v>
       </c>
     </row>
     <row r="92" spans="1:22" ht="28">
       <c r="A92" s="2" t="s">
-        <v>559</v>
+        <v>506</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>560</v>
+        <v>507</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>561</v>
+        <v>508</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>563</v>
+        <v>105</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>564</v>
+        <v>510</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>562</v>
+        <v>509</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>255</v>
@@ -18138,7 +18199,7 @@
         <v>64</v>
       </c>
       <c r="Q92" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="R92" s="2" t="s">
         <v>50</v>
@@ -18148,30 +18209,30 @@
         <v>1</v>
       </c>
       <c r="U92" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="V92" s="2" t="s">
-        <v>565</v>
+        <v>511</v>
       </c>
     </row>
     <row r="93" spans="1:22" ht="28">
       <c r="A93" s="2" t="s">
-        <v>566</v>
+        <v>512</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>567</v>
+        <v>513</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>568</v>
+        <v>514</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>570</v>
+        <v>32</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>569</v>
+        <v>515</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>255</v>
@@ -18204,7 +18265,7 @@
         <v>64</v>
       </c>
       <c r="Q93" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="R93" s="2" t="s">
         <v>50</v>
@@ -18214,30 +18275,30 @@
         <v>1</v>
       </c>
       <c r="U93" s="2">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="V93" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" ht="56">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" ht="28">
       <c r="A94" s="2" t="s">
-        <v>572</v>
+        <v>517</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>573</v>
+        <v>518</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>574</v>
+        <v>519</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>576</v>
+        <v>105</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>42</v>
+        <v>521</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>575</v>
+        <v>520</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>255</v>
@@ -18270,154 +18331,748 @@
         <v>64</v>
       </c>
       <c r="Q94" s="2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="R94" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="S94" s="2"/>
       <c r="T94" s="2">
         <v>1</v>
       </c>
       <c r="U94" s="2">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="V94" s="2" t="s">
-        <v>577</v>
+        <v>522</v>
       </c>
     </row>
     <row r="95" spans="1:22" ht="28">
       <c r="A95" s="2" t="s">
-        <v>578</v>
+        <v>523</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>525</v>
+      </c>
       <c r="D95" s="2" t="s">
-        <v>581</v>
+        <v>527</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>582</v>
+        <v>346</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>580</v>
+        <v>526</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>255</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="K95" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="Q95" s="2" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="R95" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="S95" s="2"/>
-      <c r="T95" s="2" t="s">
-        <v>152</v>
+      <c r="T95" s="2">
+        <v>1</v>
       </c>
       <c r="U95" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="V95" s="2" t="s">
-        <v>583</v>
+        <v>528</v>
       </c>
     </row>
     <row r="96" spans="1:22" ht="28">
       <c r="A96" s="2" t="s">
-        <v>584</v>
+        <v>529</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>585</v>
+        <v>530</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>586</v>
+        <v>531</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>588</v>
+        <v>105</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>145</v>
+        <v>533</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>587</v>
+        <v>532</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>255</v>
       </c>
       <c r="H96" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P96" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q96" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R96" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2">
+        <v>1</v>
+      </c>
+      <c r="U96" s="2">
+        <v>84</v>
+      </c>
+      <c r="V96" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" ht="28">
+      <c r="A97" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P97" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q97" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R97" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2">
+        <v>1</v>
+      </c>
+      <c r="U97" s="2">
+        <v>85</v>
+      </c>
+      <c r="V97" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" ht="28">
+      <c r="A98" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N98" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P98" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q98" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R98" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2">
+        <v>1</v>
+      </c>
+      <c r="U98" s="2">
+        <v>86</v>
+      </c>
+      <c r="V98" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" ht="42">
+      <c r="A99" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P99" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q99" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R99" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="S99" s="2"/>
+      <c r="T99" s="2">
+        <v>1</v>
+      </c>
+      <c r="U99" s="2">
+        <v>87</v>
+      </c>
+      <c r="V99" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" ht="28">
+      <c r="A100" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N100" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P100" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q100" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R100" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="S100" s="2"/>
+      <c r="T100" s="2">
+        <v>1</v>
+      </c>
+      <c r="U100" s="2">
+        <v>88</v>
+      </c>
+      <c r="V100" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" ht="28">
+      <c r="A101" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R101" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="S101" s="2"/>
+      <c r="T101" s="2">
+        <v>1</v>
+      </c>
+      <c r="U101" s="2">
+        <v>89</v>
+      </c>
+      <c r="V101" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" ht="28">
+      <c r="A102" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N102" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O102" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P102" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q102" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R102" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L96" s="2" t="s">
+      <c r="S102" s="2"/>
+      <c r="T102" s="2">
+        <v>1</v>
+      </c>
+      <c r="U102" s="2">
+        <v>90</v>
+      </c>
+      <c r="V102" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" ht="56">
+      <c r="A103" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R103" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M96" s="2" t="s">
+      <c r="S103" s="2"/>
+      <c r="T103" s="2">
+        <v>1</v>
+      </c>
+      <c r="U103" s="2">
+        <v>91</v>
+      </c>
+      <c r="V103" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" ht="28">
+      <c r="A104" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H104" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N96" s="2" t="s">
+      <c r="I104" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O96" s="2" t="s">
+      <c r="J104" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P96" s="2" t="s">
+      <c r="K104" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q96" s="2" t="s">
+      <c r="L104" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="R96" s="2" t="s">
+      <c r="M104" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S96" s="2"/>
-      <c r="T96" s="2" t="s">
+      <c r="N104" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O104" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P104" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q104" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R104" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S104" s="2"/>
+      <c r="T104" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="U96" s="2">
+      <c r="U104" s="2">
+        <v>92</v>
+      </c>
+      <c r="V104" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" ht="28">
+      <c r="A105" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P105" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q105" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R105" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="U105" s="2">
         <v>93</v>
       </c>
-      <c r="V96" s="2" t="s">
+      <c r="V105" s="2" t="s">
         <v>589</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V96" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:V105" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <headerFooter alignWithMargins="0"/>
@@ -18428,8 +19083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L1015"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13"/>

--- a/inst/application/data/mixs_v5.xlsx
+++ b/inst/application/data/mixs_v5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/td/Desktop/omicsBroker/inst/application/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E483579-6008-854A-B62B-03A2E6F5BA5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE33505-9611-6648-B75D-C56B36EFBA6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="2160" windowWidth="45400" windowHeight="25400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="6540" windowWidth="45400" windowHeight="25400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="5" r:id="rId1"/>
@@ -12190,8 +12190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
